--- a/data/alumni.xlsx
+++ b/data/alumni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Data-Mining--Penambangan-Data--Ganjil-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93FA5647-3DE0-4A8C-B74A-A718EA83F16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFAEDEE-2D24-4F9F-B490-D6CA08CF08AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2891,7 +2891,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
